--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_5.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_0</t>
+          <t>model_32_5_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999942545922642</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991202989679179</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999711305936618</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999976556582419</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999755289438396</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G2" t="n">
-        <v>5.363085927141861e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008211622990362488</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I2" t="n">
-        <v>3.155683536393308e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>4.478177087707658e-07</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.600232653635192e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000113336246475199</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002315833743415503</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000005515591426</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002414423580309428</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P2" t="n">
-        <v>122.2719420317526</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q2" t="n">
-        <v>181.9968574502944</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_1</t>
+          <t>model_32_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999943591482515</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991183235440472</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999715801107779</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999967390582729</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999757706253142</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G3" t="n">
-        <v>5.265487502411037e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008230062705084488</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I3" t="n">
-        <v>3.106547307336224e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>6.229072393605861e-07</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.584428407794576e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000113202591654449</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002294665008756406</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000005415217678</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002392353648790571</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P3" t="n">
-        <v>122.3086736472286</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.0335890657704</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_2</t>
+          <t>model_32_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999944409184388</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991165403876264</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999719642319702</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999995793851847</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999759534129966</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G4" t="n">
-        <v>5.189158621917371e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00082467076875563</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I4" t="n">
-        <v>3.064559435874919e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>8.034611942129257e-07</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.572475396197864e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001130304084687051</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002277972480500449</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000005336718299</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002374950485048462</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P4" t="n">
-        <v>122.3378779783321</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.062793396874</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_3</t>
+          <t>model_32_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999945077646302</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999114911769751</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999723142988558</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999948290172489</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999761057710818</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G5" t="n">
-        <v>5.126760636432225e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008261910120543661</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I5" t="n">
-        <v>3.026294003785776e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>9.877645354837391e-07</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.562512263372462e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001128467559620012</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002264235110679151</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005272545955</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002360628286953595</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P5" t="n">
-        <v>122.3620731062394</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q5" t="n">
-        <v>182.0869885247812</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_4</t>
+          <t>model_32_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999945611401854</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991134362754827</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999726269128006</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999938837522687</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999762286365144</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G6" t="n">
-        <v>5.076936898649011e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000827568321187046</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I6" t="n">
-        <v>2.992122512088516e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.168329675411191e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.554477739814818e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001130142355495257</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002253205915722975</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000005221305422</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002349129556334554</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P6" t="n">
-        <v>122.3816049018838</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q6" t="n">
-        <v>182.1065203204257</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_5</t>
+          <t>model_32_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999946057502477</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991120882636192</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999729090798717</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999929724218412</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999976331375576</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G7" t="n">
-        <v>5.035295363560496e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000828826631090705</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I7" t="n">
-        <v>2.961279135195807e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.342412614732411e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.547759337464552e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001132210898328842</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002243946381614431</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005178479762</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002339475824689131</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P7" t="n">
-        <v>122.3980767428735</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.1229921614153</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_6</t>
+          <t>model_32_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999946413184266</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991108761308541</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999731602417639</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999921012237571</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999976413947898</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G8" t="n">
-        <v>5.00209402979663e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008299581038204102</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I8" t="n">
-        <v>2.933824900807874e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.508829447303837e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.542359696143859e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000113376599106573</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002236536167781918</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005144334311</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002331750142712511</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P8" t="n">
-        <v>122.4113078544912</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.136223273033</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_7</t>
+          <t>model_32_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999946703465087</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991097727239001</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999733889781032</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999912710259473</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999976483955336</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G9" t="n">
-        <v>4.974997589404214e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000830988085778073</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I9" t="n">
-        <v>2.908821979319582e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.667414380458776e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.53778170868273e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001135349732259449</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002230470261941238</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000005116467352</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002325425998702036</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P9" t="n">
-        <v>122.4221713437914</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q9" t="n">
-        <v>182.1470867623332</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_8</t>
+          <t>model_32_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999946945847979</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991087788785097</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999973590508619</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999905073661376</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999765427624976</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G10" t="n">
-        <v>4.952372210254984e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008319157968252166</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I10" t="n">
-        <v>2.886792896925559e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.813289180967481e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.533936139468293e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001136418947123862</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0022253925968815</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000005093198594</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002320132166928489</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P10" t="n">
-        <v>122.4312877235697</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.1562031421115</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_9</t>
+          <t>model_32_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999947134245573</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991078751938893</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999737677844662</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999989782952767</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999765851136325</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G11" t="n">
-        <v>4.934786121928521e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008327593467512106</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I11" t="n">
-        <v>2.867415066078593e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.951667100783468e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.531166677101114e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001137457139966215</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002221437850116118</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000005075112425</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002316009058405851</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P11" t="n">
-        <v>122.4384024500791</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.163317868621</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_10</t>
+          <t>model_32_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999947281267764</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991070672489875</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999739281175625</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999891059053402</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999766184141248</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G12" t="n">
-        <v>4.921062245732293e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008335135278524052</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I12" t="n">
-        <v>2.849889229000667e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>2.080997146780981e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.528989062262533e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001138332430106628</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002218346737039161</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000005060998295</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002312786350245722</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P12" t="n">
-        <v>122.4439722943195</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.1688877128614</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_11</t>
+          <t>model_32_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999947400024588</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991063395055652</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999740689038502</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999884858767017</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999766454396199</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G13" t="n">
-        <v>4.909976817471854e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000834192844392932</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I13" t="n">
-        <v>2.834500032380683e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>2.199435426224842e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.527221787501584e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001139042209681893</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002215846749545612</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00000504959764</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002310179933108885</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P13" t="n">
-        <v>122.448482675323</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.1733980938648</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_12</t>
+          <t>model_32_5_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999947503861547</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991056723384165</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999741981533772</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999879158285296</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999766708120699</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G14" t="n">
-        <v>4.900284093146096e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008348156156408979</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I14" t="n">
-        <v>2.820371906583362e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>2.308326404005443e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.525562610120866e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001139552382847947</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002213658531288441</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005039629291</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002307898557870269</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P14" t="n">
-        <v>122.4524347526706</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.1773501712124</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_13</t>
+          <t>model_32_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999947578547674</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991050735534781</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999743122463267</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999873923414413</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999766872031016</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G15" t="n">
-        <v>4.893312471036127e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008353745550973134</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I15" t="n">
-        <v>2.807900529861967e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.408323252879068e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.524490753472498e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001140194234464409</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002212083287545053</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005032459423</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002306256252739521</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P15" t="n">
-        <v>122.4552821737347</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.1801975922765</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_14</t>
+          <t>model_32_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999947645306924</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991045402417734</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999744138466393</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999869086357184</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999767036599271</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G16" t="n">
-        <v>4.887080788132381e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008358723781639264</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I16" t="n">
-        <v>2.796794709739176e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>2.500721039074707e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.523414594389672e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001140754327939898</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002210674283591407</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005026050535</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002304787264570529</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P16" t="n">
-        <v>122.4578308171611</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.182746235703</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_15</t>
+          <t>model_32_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999947695472647</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999104056857698</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999745030384202</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999864731258706</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999767143085971</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G17" t="n">
-        <v>4.882398038068711e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008363235959801874</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I17" t="n">
-        <v>2.787045252781322e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.583912417422053e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.522718247261764e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001140912020724102</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002209614907188289</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000005021234626</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002303682788320719</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P17" t="n">
-        <v>122.4597481151074</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q17" t="n">
-        <v>182.1846635336492</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_16</t>
+          <t>model_32_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999947740275564</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991036180298654</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999745866376267</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999860731407345</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999767257593578</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G18" t="n">
-        <v>4.878215882400767e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008367332224996648</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I18" t="n">
-        <v>2.77790711407105e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>2.660317841923453e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.521969449131697e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001141277305610278</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002208668350477447</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000005016933546</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002302695934731053</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P18" t="n">
-        <v>122.4614620056302</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.186377424172</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_17</t>
+          <t>model_32_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999947777560815</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991032244328114</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.99997466123852</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999985708806147</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999767352746903</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G19" t="n">
-        <v>4.874735467907717e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008371006280726139</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I19" t="n">
-        <v>2.769752571229763e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>2.729913275111504e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>1.521347214207448e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001141476490539245</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00220788031104671</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000005013354162</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002301874346830283</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P19" t="n">
-        <v>122.4628894359601</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.1878048545019</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_18</t>
+          <t>model_32_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999947800655111</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.999102870632516</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999747253374831</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999853746372356</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999767396620287</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G20" t="n">
-        <v>4.872579716725198e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00083743088511835</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I20" t="n">
-        <v>2.762745982996383e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.793746440965804e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.521060313546482e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001141808317287991</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002207392062304564</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000005011137109</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002301365312328371</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P20" t="n">
-        <v>122.4637740903195</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q20" t="n">
-        <v>182.1886895088613</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_19</t>
+          <t>model_32_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999947825801921</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991025506732073</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999747852189886</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999850792462464</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999767461999923</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G21" t="n">
-        <v>4.870232372359796e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008377295530884605</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I21" t="n">
-        <v>2.756200400487077e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>2.850172222545012e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.520632777327579e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001141983163755465</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002206860297427048</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000005008723015</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002300810909119113</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P21" t="n">
-        <v>122.464737813889</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.1896532324308</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_20</t>
+          <t>model_32_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999947843786104</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991022643903852</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999748379365681</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999848035813756</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999767503645507</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G22" t="n">
-        <v>4.868553627836507e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008379967855364772</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I22" t="n">
-        <v>2.750437898989516e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>2.902829907951417e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.520360444892329e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001142109306761974</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0022064799178412</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000005006996534</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002300414335986801</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P22" t="n">
-        <v>122.4654273226388</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.1903427411806</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_21</t>
+          <t>model_32_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999947858569852</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991020054239386</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999748852242634</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999845560912769</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999767538089004</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G23" t="n">
-        <v>4.867173629845421e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008382385193471065</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I23" t="n">
-        <v>2.745268932235779e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>2.950105629838388e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.520135208970637e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001142138911508692</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002206167180846778</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000005005577294</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002300088285131072</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P23" t="n">
-        <v>122.4659943056546</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q23" t="n">
-        <v>182.1909097241964</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_22</t>
+          <t>model_32_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999994786675374</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991017729789412</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999749270371846</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999984328206766</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999767549561476</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G24" t="n">
-        <v>4.866409699906199e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000838455496548938</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I24" t="n">
-        <v>2.740698407105008e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.99363627940517e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.520060187186726e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001142409179261393</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002205994038955273</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000005004791641</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002299907772230793</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P24" t="n">
-        <v>122.4663082414025</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q24" t="n">
-        <v>182.1912236599444</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_23</t>
+          <t>model_32_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999947873789339</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991015648154407</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999974963233123</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999841230702086</v>
+        <v>0.9999500609099513</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999976756091588</v>
+        <v>0.9999673385276829</v>
       </c>
       <c r="G25" t="n">
-        <v>4.865752957563998e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008386498080394068</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I25" t="n">
-        <v>2.736741868290098e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>3.032821599898304e-06</v>
+        <v>2.622836343557812e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.51998593747227e-05</v>
+        <v>1.486533858795952e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001142482865088796</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002205845179871878</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000005004116223</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002299752575908036</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P25" t="n">
-        <v>122.4665781679816</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q25" t="n">
-        <v>182.1914935865234</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_5_24</t>
+          <t>model_32_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999947883306447</v>
+        <v>0.9999949033099094</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991013768179979</v>
+        <v>0.9991177126578558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999749986422261</v>
+        <v>0.9999882751496748</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999839410843013</v>
+        <v>0.9999500534357256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999767587070915</v>
+        <v>0.9999673345710749</v>
       </c>
       <c r="G26" t="n">
-        <v>4.864864577274819e-06</v>
+        <v>4.757536480818103e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008388252954000879</v>
+        <v>0.0008235765059532563</v>
       </c>
       <c r="I26" t="n">
-        <v>2.732871337580097e-05</v>
+        <v>3.502313740340931e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>3.067584667922744e-06</v>
+        <v>2.623228895180673e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.519814902186186e-05</v>
+        <v>1.486713937383002e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001142616938084456</v>
+        <v>8.583911033912743e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002205643801087297</v>
+        <v>0.002181177773776843</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000005003202581</v>
+        <v>1.000004892822487</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002299542624011684</v>
+        <v>0.002274035027266965</v>
       </c>
       <c r="P26" t="n">
-        <v>122.466943357668</v>
+        <v>122.5115611394815</v>
       </c>
       <c r="Q26" t="n">
-        <v>182.1918587762099</v>
+        <v>182.2364765580233</v>
       </c>
     </row>
   </sheetData>
